--- a/Contents/2/Exams.xlsx
+++ b/Contents/2/Exams.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Download-Web\Contents\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Helli 10\Exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{691AAB96-E89A-477D-8727-33D1975D139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59479915-A208-4969-839C-BE2038FFA18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{852BD7D8-C972-4F5E-8218-64943D7FA33C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="2" xr2:uid="{852BD7D8-C972-4F5E-8218-64943D7FA33C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="آزمون 21 مهر" sheetId="4" r:id="rId2"/>
+    <sheet name="آزمون 12 آبان" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t xml:space="preserve">تاریخ آزمون </t>
   </si>
@@ -164,6 +165,12 @@
   </si>
   <si>
     <t>تعداد مدرسه</t>
+  </si>
+  <si>
+    <t>مجموع</t>
+  </si>
+  <si>
+    <t>تعداد سوال</t>
   </si>
 </sst>
 </file>
@@ -179,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +247,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -253,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -275,13 +288,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -290,19 +304,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -311,22 +328,41 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,41 +679,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302BAA69-6568-40B6-88E7-74674EA35AF3}">
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
       <c r="W1" s="19" t="s">
         <v>14</v>
       </c>
@@ -700,10 +736,10 @@
       <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -814,10 +850,10 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="5">
         <v>5981</v>
       </c>
@@ -918,10 +954,10 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="5">
         <v>8830</v>
       </c>
@@ -1006,10 +1042,10 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1048,10 +1084,10 @@
       <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1090,10 +1126,10 @@
       <c r="AL6" s="1"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1132,10 +1168,10 @@
       <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1174,10 +1210,10 @@
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1216,10 +1252,10 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1258,10 +1294,10 @@
       <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1300,10 +1336,10 @@
       <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1342,10 +1378,10 @@
       <c r="AL12" s="1"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1384,10 +1420,10 @@
       <c r="AL13" s="1"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1426,8 +1462,8 @@
       <c r="AL14" s="1"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1466,8 +1502,8 @@
       <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1506,8 +1542,8 @@
       <c r="AL16" s="1"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1546,8 +1582,8 @@
       <c r="AL17" s="1"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1586,8 +1622,8 @@
       <c r="AL18" s="1"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1627,6 +1663,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="AE1:AL1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A19:B19"/>
@@ -1643,14 +1687,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1661,7 +1697,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,18 +1706,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
@@ -1697,34 +1733,34 @@
       <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="29"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="31" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="15">
         <v>0.6</v>
       </c>
@@ -1740,36 +1776,36 @@
       <c r="K2" s="13">
         <v>8</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="27">
         <v>0.37</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32">
+      <c r="M2" s="25"/>
+      <c r="N2" s="28">
         <v>0.79800000000000004</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31">
+      <c r="O2" s="25"/>
+      <c r="P2" s="25">
         <v>6446</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25">
         <v>10276</v>
       </c>
-      <c r="S2" s="31"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22">
         <v>8830</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="16">
         <v>0.66700000000000004</v>
       </c>
@@ -1785,32 +1821,32 @@
       <c r="K3" s="14">
         <v>4</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="31">
         <v>0.43</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26">
+      <c r="M3" s="26"/>
+      <c r="N3" s="32">
         <v>0.874</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26">
         <v>6425</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26">
         <v>9943</v>
       </c>
-      <c r="S3" s="25"/>
+      <c r="S3" s="26"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22">
         <v>6431</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1830,11 +1866,11 @@
       <c r="K4" s="1">
         <v>4</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="29">
         <v>0.25</v>
       </c>
       <c r="M4" s="18"/>
-      <c r="N4" s="28">
+      <c r="N4" s="30">
         <v>0.64600000000000002</v>
       </c>
       <c r="O4" s="18"/>
@@ -1848,14 +1884,14 @@
       <c r="S4" s="18"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22">
         <v>8711</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
@@ -1875,11 +1911,11 @@
       <c r="K5" s="3">
         <v>5</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="34">
         <v>0.24399999999999999</v>
       </c>
       <c r="M5" s="19"/>
-      <c r="N5" s="22">
+      <c r="N5" s="34">
         <v>0.74099999999999999</v>
       </c>
       <c r="O5" s="19"/>
@@ -1893,18 +1929,18 @@
       <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22">
         <v>10264</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="7">
         <v>0.61299999999999999</v>
       </c>
@@ -1920,102 +1956,162 @@
       <c r="K6" s="2">
         <v>7</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="33">
         <v>0.308</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="23">
+      <c r="M6" s="22"/>
+      <c r="N6" s="33">
         <v>0.79500000000000004</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22">
         <v>6428</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22">
         <v>10302</v>
       </c>
-      <c r="S6" s="21"/>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
         <v>190</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17">
+        <f>I2+I5+I6</f>
+        <v>48</v>
+      </c>
+      <c r="J7" s="17">
+        <f>J2+J5+J6</f>
+        <v>7</v>
+      </c>
+      <c r="K7" s="17">
+        <f>K2+K5+K6</f>
+        <v>20</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22">
         <v>2023</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22">
         <v>95</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
         <v>556</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
         <v>34</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22">
         <v>63</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="A13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22">
+        <v>75</v>
+      </c>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
+  <mergeCells count="56">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A8:B8"/>
@@ -2032,38 +2128,460 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J7" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F46F95-19AC-497F-8C5F-A4CD8DB2FACA}">
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="36">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="H2" s="13">
+        <v>8484</v>
+      </c>
+      <c r="I2" s="13">
+        <v>18</v>
+      </c>
+      <c r="J2" s="13">
+        <v>3</v>
+      </c>
+      <c r="K2" s="13">
+        <v>9</v>
+      </c>
+      <c r="L2" s="28">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="28">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37">
+        <v>6443</v>
+      </c>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37">
+        <v>10311</v>
+      </c>
+      <c r="S2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22">
+        <v>8378</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="16">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H3" s="44">
+        <v>8631</v>
+      </c>
+      <c r="I3" s="44">
+        <v>14</v>
+      </c>
+      <c r="J3" s="44">
+        <v>1</v>
+      </c>
+      <c r="K3" s="44">
+        <v>5</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="32">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26">
+        <v>6421</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26">
+        <v>10067</v>
+      </c>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22">
+        <v>6431</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="9">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H4" s="38">
+        <v>7479</v>
+      </c>
+      <c r="I4" s="38">
+        <v>4</v>
+      </c>
+      <c r="J4" s="38">
+        <v>2</v>
+      </c>
+      <c r="K4" s="38">
+        <v>4</v>
+      </c>
+      <c r="L4" s="30">
+        <v>0.224</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="30">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39">
+        <v>6330</v>
+      </c>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39">
+        <v>9411</v>
+      </c>
+      <c r="S4" s="39"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22">
+        <v>8852</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="8">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="H5" s="40">
+        <v>8047</v>
+      </c>
+      <c r="I5" s="40">
+        <v>13</v>
+      </c>
+      <c r="J5" s="40">
+        <v>5</v>
+      </c>
+      <c r="K5" s="40">
+        <v>2</v>
+      </c>
+      <c r="L5" s="34">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="M5" s="41"/>
+      <c r="N5" s="34">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41">
+        <v>6421</v>
+      </c>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41">
+        <v>9802</v>
+      </c>
+      <c r="S5" s="41"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22">
+        <v>10162</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="7">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H6" s="42">
+        <v>8701</v>
+      </c>
+      <c r="I6" s="42">
+        <v>13</v>
+      </c>
+      <c r="J6" s="42">
+        <v>5</v>
+      </c>
+      <c r="K6" s="42">
+        <v>6</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="M6" s="43"/>
+      <c r="N6" s="33">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43">
+        <v>6420</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43">
+        <v>10243</v>
+      </c>
+      <c r="S6" s="43"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
+        <v>684</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17">
+        <f>I2+I5+I6</f>
+        <v>44</v>
+      </c>
+      <c r="J7" s="17">
+        <f>J2+J5+J6</f>
+        <v>13</v>
+      </c>
+      <c r="K7" s="17">
+        <f>K2+K5+K6</f>
+        <v>17</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22">
+        <v>4868</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22">
+        <v>327</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
+        <v>1864</v>
+      </c>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
+        <v>36</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22">
+        <v>61</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22">
+        <v>75</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
